--- a/development/arena_12-12/teensy4p1/teensy_arena_12-12_v0p1/production/version_0p1_r1/CPL_JLCPCB_teensy_arena_12-12_v0p1_r1.xlsx
+++ b/development/arena_12-12/teensy4p1/teensy_arena_12-12_v0p1/production/version_0p1_r1/CPL_JLCPCB_teensy_arena_12-12_v0p1_r1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="446">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -142,13 +142,271 @@
     <t xml:space="preserve">C34</t>
   </si>
   <si>
+    <t xml:space="preserve">C35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
     <t xml:space="preserve">J2</t>
   </si>
   <si>
     <t xml:space="preserve">J3</t>
   </si>
   <si>
-    <t xml:space="preserve">Q2</t>
+    <t xml:space="preserve">J4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
   </si>
   <si>
     <t xml:space="preserve">R1</t>
@@ -193,7 +451,667 @@
     <t xml:space="preserve">R14</t>
   </si>
   <si>
-    <t xml:space="preserve">U1</t>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1</t>
   </si>
   <si>
     <t xml:space="preserve">U2</t>
@@ -244,46 +1162,202 @@
     <t xml:space="preserve">U17</t>
   </si>
   <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW1</t>
+    <t xml:space="preserve">U18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U83</t>
   </si>
 </sst>
 </file>
@@ -444,10 +1518,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A340" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A360" activeCellId="0" sqref="A360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -484,10 +1558,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>273.9136</v>
+        <v>251.079</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-220.5228</v>
+        <v>-260.1102</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -501,10 +1575,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>287.274</v>
+        <v>224.0194</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-220.472</v>
+        <v>-287.6296</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -518,10 +1592,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>274.545</v>
+        <v>213.9462</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-239.08</v>
+        <v>-286.7152</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -535,16 +1609,16 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>286.885</v>
+        <v>267.2842</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-239.08</v>
+        <v>-246.096</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,16 +1626,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>236.69</v>
+        <v>268.1732</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-293.674</v>
+        <v>-236.1458</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -569,16 +1643,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>224.355</v>
+        <v>203.957</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-293.684</v>
+        <v>-288.1206</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,16 +1660,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>274.292</v>
+        <v>193.9474</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-293.624</v>
+        <v>-286.6982</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,16 +1677,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>261.912</v>
+        <v>183.9748</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-293.654</v>
+        <v>-287.6202</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,16 +1694,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>192.504</v>
+        <v>173.9444</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-293.604</v>
+        <v>-286.8074</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,16 +1711,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>180.354</v>
+        <v>282.9356</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-293.564</v>
+        <v>-199.881</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>180</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,16 +1728,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>278.704</v>
+        <v>281.9196</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-202.73</v>
+        <v>-189.4658</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,16 +1745,16 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>278.704</v>
+        <v>281.8024</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-189.23</v>
+        <v>-229.2613</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>180</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,16 +1762,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>277.6505</v>
+        <v>280.6848</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-148.938</v>
+        <v>-218.6949</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,16 +1779,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>270.9005</v>
+        <v>71.8566</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-137.2467</v>
+        <v>-253.2736</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-150</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,16 +1796,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>249.842</v>
+        <v>70.8914</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-102.8795</v>
+        <v>-242.7568</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,16 +1813,16 @@
         <v>21</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>238.1507</v>
+        <v>156.1754</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-96.1295</v>
+        <v>-286.9692</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,16 +1830,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>202.73</v>
+        <v>145.7054</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-76.896</v>
+        <v>-287.8836</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,16 +1847,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>189.23</v>
+        <v>128.3318</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-76.896</v>
+        <v>-286.898</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,16 +1864,16 @@
         <v>24</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>148.938</v>
+        <v>117.7882</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-77.9495</v>
+        <v>-287.8124</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,16 +1881,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>137.2467</v>
+        <v>100.7034</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-84.6995</v>
+        <v>-286.9508</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,16 +1898,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>102.8795</v>
+        <v>90.0582</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-105.758</v>
+        <v>-287.916</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,16 +1915,16 @@
         <v>27</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>96.1295</v>
+        <v>100.7018</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-117.4493</v>
+        <v>-268.3256</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,10 +1932,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>76.896</v>
+        <v>90.2318</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-152.87</v>
+        <v>-269.24</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -875,16 +1949,16 @@
         <v>29</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>76.896</v>
+        <v>71.7804</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-166.37</v>
+        <v>-224.0052</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,16 +1966,16 @@
         <v>30</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>77.9495</v>
+        <v>69.85</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-206.662</v>
+        <v>-213.2844</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,16 +1983,16 @@
         <v>31</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>84.6995</v>
+        <v>223.994</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-218.3533</v>
+        <v>-286.5882</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,16 +2000,16 @@
         <v>32</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>105.758</v>
+        <v>268.351</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-252.7205</v>
+        <v>-246.1214</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-120</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,16 +2017,16 @@
         <v>33</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>117.4493</v>
+        <v>203.985</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-259.4705</v>
+        <v>-287.1046</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,16 +2034,16 @@
         <v>34</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>152.87</v>
+        <v>183.9748</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-278.704</v>
+        <v>-286.6042</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,10 +2051,10 @@
         <v>35</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>166.37</v>
+        <v>282.9356</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-278.704</v>
+        <v>-202.675</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -994,16 +2068,16 @@
         <v>36</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>206.662</v>
+        <v>286.5424</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-277.6505</v>
+        <v>-202.675</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,16 +2085,16 @@
         <v>37</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>218.3533</v>
+        <v>281.8024</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-270.9005</v>
+        <v>-232.3321</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,16 +2102,16 @@
         <v>38</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>252.7205</v>
+        <v>285.369</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-249.842</v>
+        <v>-232.3321</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,16 +2119,16 @@
         <v>39</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>259.4705</v>
+        <v>71.8566</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-238.1507</v>
+        <v>-256.4232</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,10 +2136,10 @@
         <v>40</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>301.5</v>
+        <v>75.4126</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-239.516</v>
+        <v>-256.418</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -1079,16 +2153,16 @@
         <v>41</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>301.5</v>
+        <v>159.1648</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-230.505</v>
+        <v>-283.4234</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,16 +2170,16 @@
         <v>42</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>291.2055</v>
+        <v>159.236</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-169.164</v>
+        <v>-286.9946</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,16 +2187,16 @@
         <v>43</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>293.2195</v>
+        <v>131.1884</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-172.466</v>
+        <v>-286.9184</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,16 +2204,16 @@
         <v>44</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>295.148</v>
+        <v>131.1994</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-169.164</v>
+        <v>-283.3928</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,10 +2221,10 @@
         <v>45</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>278.45</v>
+        <v>103.6692</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-184.826</v>
+        <v>-286.9854</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -1164,16 +2238,16 @@
         <v>46</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>268.4785</v>
+        <v>103.6726</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-133.5597</v>
+        <v>-283.4456</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,16 +2255,16 @@
         <v>47</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>234.2097</v>
+        <v>103.4626</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-94.1475</v>
+        <v>-268.3256</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,16 +2272,16 @@
         <v>48</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>184.826</v>
+        <v>103.389</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-77.15</v>
+        <v>-264.8712</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,16 +2289,16 @@
         <v>49</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>133.5597</v>
+        <v>71.7804</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-87.1215</v>
+        <v>-227.4824</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>-60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,16 +2306,16 @@
         <v>50</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>94.1475</v>
+        <v>75.2856</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-121.3903</v>
+        <v>-227.4824</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>-30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,16 +2323,16 @@
         <v>51</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>77.15</v>
+        <v>77.5004</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-170.774</v>
+        <v>-212.8064</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,16 +2340,16 @@
         <v>52</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>87.1215</v>
+        <v>271.6412</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-222.0403</v>
+        <v>-168.8846</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,16 +2357,16 @@
         <v>53</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>121.3903</v>
+        <v>271.6342</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-261.4525</v>
+        <v>-176.3522</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,16 +2374,16 @@
         <v>54</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>170.774</v>
+        <v>271.6596</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-278.45</v>
+        <v>-181.6354</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,16 +2391,16 @@
         <v>55</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>222.0403</v>
+        <v>271.7104</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-268.4785</v>
+        <v>-187.0202</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1334,16 +2408,16 @@
         <v>56</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>261.4525</v>
+        <v>254.6111</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-234.2097</v>
+        <v>-123.1584</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>150</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,16 +2425,16 @@
         <v>57</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>280.8555</v>
+        <v>258.3389</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-222.799</v>
+        <v>-129.6291</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>-90</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>280.7409</v>
+        <v>261.0025</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-241.3398</v>
+        <v>-134.1918</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>-90</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,16 +2459,16 @@
         <v>59</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>230.5396</v>
+        <v>263.7389</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-291.4176</v>
+        <v>-138.8297</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>90</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,16 +2476,16 @@
         <v>60</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>267.9826</v>
+        <v>216.9996</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-291.3668</v>
+        <v>-92.0735</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>90</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,16 +2493,16 @@
         <v>61</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>186.5017</v>
+        <v>223.4633</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-291.2958</v>
+        <v>-95.8133</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>90</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,244 +2510,220 @@
         <v>62</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>278.659028</v>
+        <v>228.0514</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-196.003</v>
+        <v>-98.4329</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+        <v>-120</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>274.247981</v>
+        <v>232.7401</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-143.134745</v>
+        <v>-101.0813</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+        <v>-120</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>243.993774</v>
+        <v>168.8846</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-99.555018</v>
+        <v>-83.9588</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>240</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+        <v>-90</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>196.003</v>
+        <v>176.3522</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-76.940971</v>
+        <v>-83.9658</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>270</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+        <v>-90</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>143.134745</v>
+        <v>181.6354</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-81.352018</v>
+        <v>-83.9404</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+        <v>-90</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>99.555018</v>
+        <v>187.0202</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-111.606225</v>
+        <v>-83.8896</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>330</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+        <v>-90</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>76.940971</v>
+        <v>123.1585</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-159.597</v>
+        <v>-100.9889</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+        <v>-60</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>81.352018</v>
+        <v>129.6291</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-212.465254</v>
+        <v>-97.2611</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+        <v>-60</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>111.606225</v>
+        <v>134.1918</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-256.044981</v>
+        <v>-94.5975</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
+        <v>-60</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>159.597</v>
+        <v>138.8297</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-278.659028</v>
+        <v>-91.8611</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+        <v>-60</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>212.465254</v>
+        <v>92.0735</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-274.247981</v>
+        <v>-138.6004</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
+        <v>-30</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>256.044981</v>
+        <v>95.8133</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-243.993774</v>
+        <v>-132.1367</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+        <v>-30</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>304.6</v>
+        <v>98.4329</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-116.459</v>
+        <v>-127.5486</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>-90</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,16 +2731,16 @@
         <v>75</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>265.474</v>
+        <v>101.0813</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-177.8</v>
+        <v>-122.8599</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>90</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,16 +2748,16 @@
         <v>76</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>253.7279</v>
+        <v>83.9588</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-133.963</v>
+        <v>-186.7154</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,16 +2765,16 @@
         <v>77</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>221.637</v>
+        <v>83.9658</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-101.8721</v>
+        <v>-179.2478</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,16 +2782,16 @@
         <v>78</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>177.8</v>
+        <v>83.9404</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-90.126</v>
+        <v>-173.9646</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,16 +2799,16 @@
         <v>79</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>133.963</v>
+        <v>83.8896</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-101.8721</v>
+        <v>-168.5798</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>-150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,16 +2816,16 @@
         <v>80</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>101.8721</v>
+        <v>100.9889</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-133.963</v>
+        <v>-232.4415</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>-120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1783,16 +2833,16 @@
         <v>81</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>90.126</v>
+        <v>97.2611</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-177.8</v>
+        <v>-225.9709</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>-90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,16 +2850,16 @@
         <v>82</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>101.8721</v>
+        <v>94.5975</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-221.637</v>
+        <v>-221.4082</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>-60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,16 +2867,16 @@
         <v>83</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>133.963</v>
+        <v>91.8611</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-253.7279</v>
+        <v>-216.7703</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,16 +2884,16 @@
         <v>84</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>177.8</v>
+        <v>138.6004</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-265.474</v>
+        <v>-263.5265</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,16 +2901,16 @@
         <v>85</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>221.637</v>
+        <v>132.1367</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-253.7279</v>
+        <v>-259.7867</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,10 +2918,10 @@
         <v>86</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>253.7279</v>
+        <v>127.5486</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-221.637</v>
+        <v>-257.1671</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>6</v>
@@ -1885,18 +2935,6189 @@
         <v>87</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>299.5</v>
+        <v>122.8599</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-86.233</v>
+        <v>-254.5187</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E83" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>186.7154</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>-271.6412</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="2" t="n">
         <v>90</v>
       </c>
     </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>179.2478</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>-271.6342</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>173.9646</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>-271.6596</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>168.5798</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>-271.7104</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>232.4415</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>-254.6111</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>225.9709</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>-258.3389</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>221.4082</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>-261.0025</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>216.7703</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>-263.7389</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>263.5265</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>-216.9996</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>259.7867</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>-223.4633</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>257.1671</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>-228.0514</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>254.5187</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>-232.7401</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>272.86</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>-161.09</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>251.7694</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>-115.7987</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>210.8587</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>-87.1206</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>161.09</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>-82.74</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>115.7987</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>-103.8306</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>87.1206</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>-144.7413</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>82.74</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>-194.51</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>103.8306</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>-239.8013</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>144.7413</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>-268.4794</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>194.51</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>-272.86</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>239.8013</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>-251.7694</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>268.4794</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>-210.8587</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>292.1</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>-92.202</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>288.701</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>-162.39</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>288.701</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>-153.379</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>-63.5028</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>266.474</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>-177.8</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>254.594</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>-133.463</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>222.137</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>-101.006</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>-89.126</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>133.463</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>-101.006</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>101.006</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>-133.463</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>89.126</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>-177.8</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>101.006</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>-222.137</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>133.463</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>-254.594</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>-266.474</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>222.137</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>-254.594</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>254.594</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>-222.137</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>72.8885</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>-199.767</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>73.9902</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>-202.6138</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>75.6412</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>-199.6908</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>237.7694</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>-284.1772</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>259.334</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>-281.938</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>256.5654</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>-261.11</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>242.189</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>-266.2916</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>244.5512</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>-265.4534</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>282.7782</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>-251.5342</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>278.003</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>-253.2868</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>275.6154</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>-254.1504</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>273.2024</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>-255.0394</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>270.8402</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>-255.903</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>268.478</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>-256.7158</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>266.065</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>-257.6048</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>263.6774</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>-258.4806</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>261.3152</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>-259.3574</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>258.9276</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>-260.1956</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>249.3518</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>-263.6754</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>246.9896</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>-264.539</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>239.8268</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>-273.05</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>237.49</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>-273.6576</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>235.0516</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>-274.5212</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>232.664</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>-275.2832</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>227.332</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>-274.066</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>282.704</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>-267.843</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>280.287</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>-268.732</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>277.874</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>-269.748</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>275.4864</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>-270.6116</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>268.859</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>-278.513</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>266.4968</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>-279.275</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>254.5588</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>-283.6652</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>252.1712</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>-284.5288</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>249.8344</v>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>-285.3924</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>247.2944</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>-280.926</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>244.729</v>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>-281.6098</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>242.5446</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>-282.4246</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>240.1316</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>-283.2374</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>235.331</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>-285.0408</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>213.9208</v>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>-287.7312</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>213.9208</v>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>-285.6992</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>213.9188</v>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>-284.6578</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>213.9188</v>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>-283.6164</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>213.9168</v>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>-282.575</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>213.9148</v>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>-281.5336</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>267.1318</v>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>-236.1438</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>269.1892</v>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>-236.1204</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>270.2306</v>
+      </c>
+      <c r="C171" s="2" t="n">
+        <v>-236.1224</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>271.272</v>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>-236.1184</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>272.3134</v>
+      </c>
+      <c r="C173" s="2" t="n">
+        <v>-236.1184</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>273.3548</v>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>-236.1184</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>193.9494</v>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>-287.7142</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>193.9454</v>
+      </c>
+      <c r="C176" s="2" t="n">
+        <v>-285.6822</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>193.9454</v>
+      </c>
+      <c r="C177" s="2" t="n">
+        <v>-284.6662</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>193.9454</v>
+      </c>
+      <c r="C178" s="2" t="n">
+        <v>-283.6502</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>193.9454</v>
+      </c>
+      <c r="C179" s="2" t="n">
+        <v>-282.5834</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>193.9474</v>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>-281.5674</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>173.9196</v>
+      </c>
+      <c r="C181" s="2" t="n">
+        <v>-287.8234</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>173.9144</v>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>-285.7914</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>173.9164</v>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>-284.7754</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>173.9204</v>
+      </c>
+      <c r="C184" s="2" t="n">
+        <v>-283.7086</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>173.9184</v>
+      </c>
+      <c r="C185" s="2" t="n">
+        <v>-282.6418</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>173.9184</v>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>-281.575</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>282.9356</v>
+      </c>
+      <c r="C187" s="2" t="n">
+        <v>-189.443</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>283.9516</v>
+      </c>
+      <c r="C188" s="2" t="n">
+        <v>-189.443</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>285.0184</v>
+      </c>
+      <c r="C189" s="2" t="n">
+        <v>-189.443</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>286.0344</v>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>-189.441</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>287.0504</v>
+      </c>
+      <c r="C191" s="2" t="n">
+        <v>-189.441</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>288.0664</v>
+      </c>
+      <c r="C192" s="2" t="n">
+        <v>-189.441</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>280.9036</v>
+      </c>
+      <c r="C193" s="2" t="n">
+        <v>-189.441</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>289.0824</v>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>-189.441</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>279.6688</v>
+      </c>
+      <c r="C195" s="2" t="n">
+        <v>-218.6949</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>281.7008</v>
+      </c>
+      <c r="C196" s="2" t="n">
+        <v>-218.6949</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>282.7168</v>
+      </c>
+      <c r="C197" s="2" t="n">
+        <v>-218.6949</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>283.7328</v>
+      </c>
+      <c r="C198" s="2" t="n">
+        <v>-218.6949</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>284.7488</v>
+      </c>
+      <c r="C199" s="2" t="n">
+        <v>-218.6929</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>285.7648</v>
+      </c>
+      <c r="C200" s="2" t="n">
+        <v>-218.6969</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>286.7808</v>
+      </c>
+      <c r="C201" s="2" t="n">
+        <v>-218.6969</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>287.7968</v>
+      </c>
+      <c r="C202" s="2" t="n">
+        <v>-218.6969</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>69.8754</v>
+      </c>
+      <c r="C203" s="2" t="n">
+        <v>-242.734</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>71.9074</v>
+      </c>
+      <c r="C204" s="2" t="n">
+        <v>-242.736</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>72.9234</v>
+      </c>
+      <c r="C205" s="2" t="n">
+        <v>-242.736</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>73.9394</v>
+      </c>
+      <c r="C206" s="2" t="n">
+        <v>-242.736</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>74.9554</v>
+      </c>
+      <c r="C207" s="2" t="n">
+        <v>-242.736</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>75.9714</v>
+      </c>
+      <c r="C208" s="2" t="n">
+        <v>-242.736</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>76.9874</v>
+      </c>
+      <c r="C209" s="2" t="n">
+        <v>-242.736</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>78.0034</v>
+      </c>
+      <c r="C210" s="2" t="n">
+        <v>-242.732</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>145.6806</v>
+      </c>
+      <c r="C211" s="2" t="n">
+        <v>-288.8996</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>145.6806</v>
+      </c>
+      <c r="C212" s="2" t="n">
+        <v>-286.8676</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>145.6806</v>
+      </c>
+      <c r="C213" s="2" t="n">
+        <v>-285.8516</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>145.6826</v>
+      </c>
+      <c r="C214" s="2" t="n">
+        <v>-284.8356</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>145.6806</v>
+      </c>
+      <c r="C215" s="2" t="n">
+        <v>-283.8196</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>145.6806</v>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>-282.8036</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>145.6806</v>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>-281.7876</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>145.6806</v>
+      </c>
+      <c r="C218" s="2" t="n">
+        <v>-280.7716</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>117.7634</v>
+      </c>
+      <c r="C219" s="2" t="n">
+        <v>-288.8284</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>117.7674</v>
+      </c>
+      <c r="C220" s="2" t="n">
+        <v>-286.7964</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>117.7674</v>
+      </c>
+      <c r="C221" s="2" t="n">
+        <v>-285.7804</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>117.7674</v>
+      </c>
+      <c r="C222" s="2" t="n">
+        <v>-284.7644</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>117.7674</v>
+      </c>
+      <c r="C223" s="2" t="n">
+        <v>-283.7484</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>117.7674</v>
+      </c>
+      <c r="C224" s="2" t="n">
+        <v>-282.7324</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>117.7654</v>
+      </c>
+      <c r="C225" s="2" t="n">
+        <v>-281.7164</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>117.7674</v>
+      </c>
+      <c r="C226" s="2" t="n">
+        <v>-280.7004</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>90.0374</v>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>-288.932</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>90.0374</v>
+      </c>
+      <c r="C228" s="2" t="n">
+        <v>-286.9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>90.0374</v>
+      </c>
+      <c r="C229" s="2" t="n">
+        <v>-285.884</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>90.0374</v>
+      </c>
+      <c r="C230" s="2" t="n">
+        <v>-284.868</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>90.0374</v>
+      </c>
+      <c r="C231" s="2" t="n">
+        <v>-283.852</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>90.0374</v>
+      </c>
+      <c r="C232" s="2" t="n">
+        <v>-282.836</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>90.0374</v>
+      </c>
+      <c r="C233" s="2" t="n">
+        <v>-281.82</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>90.0374</v>
+      </c>
+      <c r="C234" s="2" t="n">
+        <v>-280.804</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>90.211</v>
+      </c>
+      <c r="C235" s="2" t="n">
+        <v>-270.256</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>90.209</v>
+      </c>
+      <c r="C236" s="2" t="n">
+        <v>-268.224</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>90.211</v>
+      </c>
+      <c r="C237" s="2" t="n">
+        <v>-267.208</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>90.209</v>
+      </c>
+      <c r="C238" s="2" t="n">
+        <v>-266.192</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>90.211</v>
+      </c>
+      <c r="C239" s="2" t="n">
+        <v>-265.176</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>90.207</v>
+      </c>
+      <c r="C240" s="2" t="n">
+        <v>-264.16</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>90.207</v>
+      </c>
+      <c r="C241" s="2" t="n">
+        <v>-263.144</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>90.211</v>
+      </c>
+      <c r="C242" s="2" t="n">
+        <v>-262.128</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>68.834</v>
+      </c>
+      <c r="C243" s="2" t="n">
+        <v>-213.2844</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>70.866</v>
+      </c>
+      <c r="C244" s="2" t="n">
+        <v>-213.2844</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>71.882</v>
+      </c>
+      <c r="C245" s="2" t="n">
+        <v>-213.2844</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>72.898</v>
+      </c>
+      <c r="C246" s="2" t="n">
+        <v>-213.2864</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>73.9648</v>
+      </c>
+      <c r="C247" s="2" t="n">
+        <v>-213.2864</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>74.9808</v>
+      </c>
+      <c r="C248" s="2" t="n">
+        <v>-213.2864</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>75.8952</v>
+      </c>
+      <c r="C249" s="2" t="n">
+        <v>-224.308</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>76.9112</v>
+      </c>
+      <c r="C250" s="2" t="n">
+        <v>-224.308</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>271.662</v>
+      </c>
+      <c r="C251" s="2" t="n">
+        <v>-167.8736</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>271.662</v>
+      </c>
+      <c r="C252" s="2" t="n">
+        <v>-169.9056</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>271.655</v>
+      </c>
+      <c r="C253" s="2" t="n">
+        <v>-175.3362</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>271.655</v>
+      </c>
+      <c r="C254" s="2" t="n">
+        <v>-177.3936</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>271.6804</v>
+      </c>
+      <c r="C255" s="2" t="n">
+        <v>-180.5686</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>271.6804</v>
+      </c>
+      <c r="C256" s="2" t="n">
+        <v>-182.6768</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>271.7058</v>
+      </c>
+      <c r="C257" s="2" t="n">
+        <v>-185.9534</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>271.7312</v>
+      </c>
+      <c r="C258" s="2" t="n">
+        <v>-188.087</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>254.1237</v>
+      </c>
+      <c r="C259" s="2" t="n">
+        <v>-122.2725</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>255.1397</v>
+      </c>
+      <c r="C260" s="2" t="n">
+        <v>-124.0323</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>257.8489</v>
+      </c>
+      <c r="C261" s="2" t="n">
+        <v>-128.7388</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>258.8776</v>
+      </c>
+      <c r="C262" s="2" t="n">
+        <v>-130.5205</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>260.4871</v>
+      </c>
+      <c r="C263" s="2" t="n">
+        <v>-133.2575</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>261.5412</v>
+      </c>
+      <c r="C264" s="2" t="n">
+        <v>-135.0832</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>263.2015</v>
+      </c>
+      <c r="C265" s="2" t="n">
+        <v>-137.9082</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>264.2903</v>
+      </c>
+      <c r="C266" s="2" t="n">
+        <v>-139.7432</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>216.1345</v>
+      </c>
+      <c r="C267" s="2" t="n">
+        <v>-91.5499</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>217.8942</v>
+      </c>
+      <c r="C268" s="2" t="n">
+        <v>-92.5659</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>222.5938</v>
+      </c>
+      <c r="C269" s="2" t="n">
+        <v>-95.2873</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>224.3755</v>
+      </c>
+      <c r="C270" s="2" t="n">
+        <v>-96.316</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>227.1379</v>
+      </c>
+      <c r="C271" s="2" t="n">
+        <v>-97.8815</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>228.9636</v>
+      </c>
+      <c r="C272" s="2" t="n">
+        <v>-98.9356</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>231.814</v>
+      </c>
+      <c r="C273" s="2" t="n">
+        <v>-100.5519</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>233.6744</v>
+      </c>
+      <c r="C274" s="2" t="n">
+        <v>-101.5967</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>167.8736</v>
+      </c>
+      <c r="C275" s="2" t="n">
+        <v>-83.938</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>169.9056</v>
+      </c>
+      <c r="C276" s="2" t="n">
+        <v>-83.938</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>175.3362</v>
+      </c>
+      <c r="C277" s="2" t="n">
+        <v>-83.945</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>177.3936</v>
+      </c>
+      <c r="C278" s="2" t="n">
+        <v>-83.945</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>180.5686</v>
+      </c>
+      <c r="C279" s="2" t="n">
+        <v>-83.9196</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>182.6768</v>
+      </c>
+      <c r="C280" s="2" t="n">
+        <v>-83.9196</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>185.9534</v>
+      </c>
+      <c r="C281" s="2" t="n">
+        <v>-83.8942</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>188.087</v>
+      </c>
+      <c r="C282" s="2" t="n">
+        <v>-83.8688</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>122.2725</v>
+      </c>
+      <c r="C283" s="2" t="n">
+        <v>-101.4763</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>124.0323</v>
+      </c>
+      <c r="C284" s="2" t="n">
+        <v>-100.4603</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>128.7388</v>
+      </c>
+      <c r="C285" s="2" t="n">
+        <v>-97.7511</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>130.5205</v>
+      </c>
+      <c r="C286" s="2" t="n">
+        <v>-96.7224</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>133.2575</v>
+      </c>
+      <c r="C287" s="2" t="n">
+        <v>-95.1129</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>135.0832</v>
+      </c>
+      <c r="C288" s="2" t="n">
+        <v>-94.0588</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>137.9082</v>
+      </c>
+      <c r="C289" s="2" t="n">
+        <v>-92.3985</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>139.7432</v>
+      </c>
+      <c r="C290" s="2" t="n">
+        <v>-91.3097</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>91.5499</v>
+      </c>
+      <c r="C291" s="2" t="n">
+        <v>-139.4655</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>92.5659</v>
+      </c>
+      <c r="C292" s="2" t="n">
+        <v>-137.7058</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>95.2873</v>
+      </c>
+      <c r="C293" s="2" t="n">
+        <v>-133.0062</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>96.316</v>
+      </c>
+      <c r="C294" s="2" t="n">
+        <v>-131.2245</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>97.8815</v>
+      </c>
+      <c r="C295" s="2" t="n">
+        <v>-128.4621</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>98.9356</v>
+      </c>
+      <c r="C296" s="2" t="n">
+        <v>-126.6364</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>100.5519</v>
+      </c>
+      <c r="C297" s="2" t="n">
+        <v>-123.786</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>101.5967</v>
+      </c>
+      <c r="C298" s="2" t="n">
+        <v>-121.9256</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>83.938</v>
+      </c>
+      <c r="C299" s="2" t="n">
+        <v>-187.7264</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>83.938</v>
+      </c>
+      <c r="C300" s="2" t="n">
+        <v>-185.6944</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>83.945</v>
+      </c>
+      <c r="C301" s="2" t="n">
+        <v>-180.2638</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>83.945</v>
+      </c>
+      <c r="C302" s="2" t="n">
+        <v>-178.2064</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>83.9196</v>
+      </c>
+      <c r="C303" s="2" t="n">
+        <v>-175.0314</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>83.9196</v>
+      </c>
+      <c r="C304" s="2" t="n">
+        <v>-172.9232</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>83.8942</v>
+      </c>
+      <c r="C305" s="2" t="n">
+        <v>-169.6466</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>83.8688</v>
+      </c>
+      <c r="C306" s="2" t="n">
+        <v>-167.513</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>101.4763</v>
+      </c>
+      <c r="C307" s="2" t="n">
+        <v>-233.3275</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>100.4603</v>
+      </c>
+      <c r="C308" s="2" t="n">
+        <v>-231.5677</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>97.7511</v>
+      </c>
+      <c r="C309" s="2" t="n">
+        <v>-226.8612</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E309" s="2" t="n">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>96.7224</v>
+      </c>
+      <c r="C310" s="2" t="n">
+        <v>-225.0795</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>95.1129</v>
+      </c>
+      <c r="C311" s="2" t="n">
+        <v>-222.3425</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>94.0588</v>
+      </c>
+      <c r="C312" s="2" t="n">
+        <v>-220.5168</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>92.3985</v>
+      </c>
+      <c r="C313" s="2" t="n">
+        <v>-217.6918</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>91.3097</v>
+      </c>
+      <c r="C314" s="2" t="n">
+        <v>-215.8568</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>139.4655</v>
+      </c>
+      <c r="C315" s="2" t="n">
+        <v>-264.0501</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>137.7058</v>
+      </c>
+      <c r="C316" s="2" t="n">
+        <v>-263.0341</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>133.0062</v>
+      </c>
+      <c r="C317" s="2" t="n">
+        <v>-260.3127</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>131.2245</v>
+      </c>
+      <c r="C318" s="2" t="n">
+        <v>-259.284</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E318" s="2" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>128.4621</v>
+      </c>
+      <c r="C319" s="2" t="n">
+        <v>-257.7185</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E319" s="2" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>126.6364</v>
+      </c>
+      <c r="C320" s="2" t="n">
+        <v>-256.6644</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>123.786</v>
+      </c>
+      <c r="C321" s="2" t="n">
+        <v>-255.0481</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>121.9256</v>
+      </c>
+      <c r="C322" s="2" t="n">
+        <v>-254.0033</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>187.7264</v>
+      </c>
+      <c r="C323" s="2" t="n">
+        <v>-271.662</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E323" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>185.6944</v>
+      </c>
+      <c r="C324" s="2" t="n">
+        <v>-271.662</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E324" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>180.2638</v>
+      </c>
+      <c r="C325" s="2" t="n">
+        <v>-271.655</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E325" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>178.2064</v>
+      </c>
+      <c r="C326" s="2" t="n">
+        <v>-271.655</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E326" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>175.0314</v>
+      </c>
+      <c r="C327" s="2" t="n">
+        <v>-271.6804</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E327" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>172.9232</v>
+      </c>
+      <c r="C328" s="2" t="n">
+        <v>-271.6804</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E328" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>169.6466</v>
+      </c>
+      <c r="C329" s="2" t="n">
+        <v>-271.7058</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E329" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>167.513</v>
+      </c>
+      <c r="C330" s="2" t="n">
+        <v>-271.7312</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>233.3275</v>
+      </c>
+      <c r="C331" s="2" t="n">
+        <v>-254.1237</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>231.5677</v>
+      </c>
+      <c r="C332" s="2" t="n">
+        <v>-255.1397</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>226.8612</v>
+      </c>
+      <c r="C333" s="2" t="n">
+        <v>-257.8489</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>225.0795</v>
+      </c>
+      <c r="C334" s="2" t="n">
+        <v>-258.8776</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B335" s="2" t="n">
+        <v>222.3425</v>
+      </c>
+      <c r="C335" s="2" t="n">
+        <v>-260.4871</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>220.5168</v>
+      </c>
+      <c r="C336" s="2" t="n">
+        <v>-261.5412</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>217.6918</v>
+      </c>
+      <c r="C337" s="2" t="n">
+        <v>-263.2015</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B338" s="2" t="n">
+        <v>215.8568</v>
+      </c>
+      <c r="C338" s="2" t="n">
+        <v>-264.2903</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>264.0501</v>
+      </c>
+      <c r="C339" s="2" t="n">
+        <v>-216.1345</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>263.0341</v>
+      </c>
+      <c r="C340" s="2" t="n">
+        <v>-217.8942</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>260.3127</v>
+      </c>
+      <c r="C341" s="2" t="n">
+        <v>-222.5938</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>259.284</v>
+      </c>
+      <c r="C342" s="2" t="n">
+        <v>-224.3755</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>257.7185</v>
+      </c>
+      <c r="C343" s="2" t="n">
+        <v>-227.1379</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E343" s="2" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>256.6644</v>
+      </c>
+      <c r="C344" s="2" t="n">
+        <v>-228.9636</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E344" s="2" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>255.0481</v>
+      </c>
+      <c r="C345" s="2" t="n">
+        <v>-231.814</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E345" s="2" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>254.0033</v>
+      </c>
+      <c r="C346" s="2" t="n">
+        <v>-233.6744</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E346" s="2" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>271.6256</v>
+      </c>
+      <c r="C347" s="2" t="n">
+        <v>-172.72</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E347" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>256.5154</v>
+      </c>
+      <c r="C348" s="2" t="n">
+        <v>-126.4878</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E348" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>220.3134</v>
+      </c>
+      <c r="C349" s="2" t="n">
+        <v>-94.0046</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>172.72</v>
+      </c>
+      <c r="C350" s="2" t="n">
+        <v>-83.9744</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E350" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>126.4878</v>
+      </c>
+      <c r="C351" s="2" t="n">
+        <v>-99.0846</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E351" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>94.0046</v>
+      </c>
+      <c r="C352" s="2" t="n">
+        <v>-135.2866</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E352" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>83.9744</v>
+      </c>
+      <c r="C353" s="2" t="n">
+        <v>-182.88</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E353" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>99.0846</v>
+      </c>
+      <c r="C354" s="2" t="n">
+        <v>-229.1122</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E354" s="2" t="n">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>135.2866</v>
+      </c>
+      <c r="C355" s="2" t="n">
+        <v>-261.5954</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E355" s="2" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>182.88</v>
+      </c>
+      <c r="C356" s="2" t="n">
+        <v>-271.6256</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E356" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>229.1122</v>
+      </c>
+      <c r="C357" s="2" t="n">
+        <v>-256.5154</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B358" s="2" t="n">
+        <v>261.5954</v>
+      </c>
+      <c r="C358" s="2" t="n">
+        <v>-220.3134</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>287.02</v>
+      </c>
+      <c r="C359" s="2" t="n">
+        <v>-113.0027</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>251.5972</v>
+      </c>
+      <c r="C360" s="2" t="n">
+        <v>-257.3979</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E360" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>218.8989</v>
+      </c>
+      <c r="C361" s="2" t="n">
+        <v>-284.581</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>270.3212</v>
+      </c>
+      <c r="C362" s="2" t="n">
+        <v>-241.0363</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E362" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>198.9124</v>
+      </c>
+      <c r="C363" s="2" t="n">
+        <v>-284.5806</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E363" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>178.8892</v>
+      </c>
+      <c r="C364" s="2" t="n">
+        <v>-284.603</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E364" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>285.2236</v>
+      </c>
+      <c r="C365" s="2" t="n">
+        <v>-194.9198</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E365" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>284.0884</v>
+      </c>
+      <c r="C366" s="2" t="n">
+        <v>-224.3337</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E366" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>74.1426</v>
+      </c>
+      <c r="C367" s="2" t="n">
+        <v>-248.4196</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E367" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>151.2375</v>
+      </c>
+      <c r="C368" s="2" t="n">
+        <v>-284.7046</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E368" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>123.4727</v>
+      </c>
+      <c r="C369" s="2" t="n">
+        <v>-284.6518</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E369" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>95.8443</v>
+      </c>
+      <c r="C370" s="2" t="n">
+        <v>-284.6862</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E370" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B371" s="2" t="n">
+        <v>95.8147</v>
+      </c>
+      <c r="C371" s="2" t="n">
+        <v>-266.0806</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E371" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>74.0658</v>
+      </c>
+      <c r="C372" s="2" t="n">
+        <v>-219.1461</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E372" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>225.1341</v>
+      </c>
+      <c r="C373" s="2" t="n">
+        <v>-284.2666</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E373" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>270.6472</v>
+      </c>
+      <c r="C374" s="2" t="n">
+        <v>-247.2615</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E374" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>205.0945</v>
+      </c>
+      <c r="C375" s="2" t="n">
+        <v>-284.8288</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E375" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>185.1123</v>
+      </c>
+      <c r="C376" s="2" t="n">
+        <v>-284.2826</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E376" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>282.9048</v>
+      </c>
+      <c r="C377" s="2" t="n">
+        <v>-205.7578</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E377" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>286.5272</v>
+      </c>
+      <c r="C378" s="2" t="n">
+        <v>-205.7709</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E378" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B379" s="2" t="n">
+        <v>285.3944</v>
+      </c>
+      <c r="C379" s="2" t="n">
+        <v>-235.3721</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E379" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>281.7876</v>
+      </c>
+      <c r="C380" s="2" t="n">
+        <v>-235.3873</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E380" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>71.8668</v>
+      </c>
+      <c r="C381" s="2" t="n">
+        <v>-259.4665</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E381" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>75.3974</v>
+      </c>
+      <c r="C382" s="2" t="n">
+        <v>-259.4665</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E382" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>162.2607</v>
+      </c>
+      <c r="C383" s="2" t="n">
+        <v>-283.4386</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E383" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>162.2531</v>
+      </c>
+      <c r="C384" s="2" t="n">
+        <v>-286.9794</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E384" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B385" s="2" t="n">
+        <v>134.2732</v>
+      </c>
+      <c r="C385" s="2" t="n">
+        <v>-286.9508</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E385" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B386" s="2" t="n">
+        <v>134.2953</v>
+      </c>
+      <c r="C386" s="2" t="n">
+        <v>-283.3776</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E386" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B387" s="2" t="n">
+        <v>106.7617</v>
+      </c>
+      <c r="C387" s="2" t="n">
+        <v>-286.9844</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E387" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B388" s="2" t="n">
+        <v>106.7651</v>
+      </c>
+      <c r="C388" s="2" t="n">
+        <v>-283.465</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E388" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B389" s="2" t="n">
+        <v>106.5077</v>
+      </c>
+      <c r="C389" s="2" t="n">
+        <v>-268.3408</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E389" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B390" s="2" t="n">
+        <v>106.5077</v>
+      </c>
+      <c r="C390" s="2" t="n">
+        <v>-264.856</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E390" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B391" s="2" t="n">
+        <v>71.8108</v>
+      </c>
+      <c r="C391" s="2" t="n">
+        <v>-230.5346</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E391" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B392" s="2" t="n">
+        <v>75.3008</v>
+      </c>
+      <c r="C392" s="2" t="n">
+        <v>-230.5275</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E392" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B393" s="2" t="n">
+        <v>77.4852</v>
+      </c>
+      <c r="C393" s="2" t="n">
+        <v>-209.6995</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E393" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B394" s="2" t="n">
+        <v>274.7827</v>
+      </c>
+      <c r="C394" s="2" t="n">
+        <v>-168.8998</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E394" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B395" s="2" t="n">
+        <v>274.8519</v>
+      </c>
+      <c r="C395" s="2" t="n">
+        <v>-176.3624</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E395" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B396" s="2" t="n">
+        <v>274.8519</v>
+      </c>
+      <c r="C396" s="2" t="n">
+        <v>-181.6252</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E396" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B397" s="2" t="n">
+        <v>274.8519</v>
+      </c>
+      <c r="C397" s="2" t="n">
+        <v>-187.0304</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E397" s="2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B398" s="2" t="n">
+        <v>257.3394</v>
+      </c>
+      <c r="C398" s="2" t="n">
+        <v>-121.6008</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E398" s="2" t="n">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B399" s="2" t="n">
+        <v>261.1306</v>
+      </c>
+      <c r="C399" s="2" t="n">
+        <v>-128.029</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E399" s="2" t="n">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B400" s="2" t="n">
+        <v>263.762</v>
+      </c>
+      <c r="C400" s="2" t="n">
+        <v>-132.5868</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E400" s="2" t="n">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B401" s="2" t="n">
+        <v>266.4646</v>
+      </c>
+      <c r="C401" s="2" t="n">
+        <v>-137.2678</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E401" s="2" t="n">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>218.5836</v>
+      </c>
+      <c r="C402" s="2" t="n">
+        <v>-89.3604</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E402" s="2" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B403" s="2" t="n">
+        <v>225.081</v>
+      </c>
+      <c r="C403" s="2" t="n">
+        <v>-93.0318</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E403" s="2" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B404" s="2" t="n">
+        <v>229.6387</v>
+      </c>
+      <c r="C404" s="2" t="n">
+        <v>-95.6632</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E404" s="2" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B405" s="2" t="n">
+        <v>234.3197</v>
+      </c>
+      <c r="C405" s="2" t="n">
+        <v>-98.3658</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E405" s="2" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B406" s="2" t="n">
+        <v>168.8998</v>
+      </c>
+      <c r="C406" s="2" t="n">
+        <v>-80.8173</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E406" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B407" s="2" t="n">
+        <v>176.3624</v>
+      </c>
+      <c r="C407" s="2" t="n">
+        <v>-80.7481</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E407" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B408" s="2" t="n">
+        <v>181.6252</v>
+      </c>
+      <c r="C408" s="2" t="n">
+        <v>-80.7481</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E408" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B409" s="2" t="n">
+        <v>187.0304</v>
+      </c>
+      <c r="C409" s="2" t="n">
+        <v>-80.7481</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E409" s="2" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B410" s="2" t="n">
+        <v>121.6009</v>
+      </c>
+      <c r="C410" s="2" t="n">
+        <v>-98.2606</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E410" s="2" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B411" s="2" t="n">
+        <v>128.029</v>
+      </c>
+      <c r="C411" s="2" t="n">
+        <v>-94.4694</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E411" s="2" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B412" s="2" t="n">
+        <v>132.5868</v>
+      </c>
+      <c r="C412" s="2" t="n">
+        <v>-91.838</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E412" s="2" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B413" s="2" t="n">
+        <v>137.2678</v>
+      </c>
+      <c r="C413" s="2" t="n">
+        <v>-89.1354</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E413" s="2" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B414" s="2" t="n">
+        <v>89.3604</v>
+      </c>
+      <c r="C414" s="2" t="n">
+        <v>-137.0164</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E414" s="2" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B415" s="2" t="n">
+        <v>93.0318</v>
+      </c>
+      <c r="C415" s="2" t="n">
+        <v>-130.519</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E415" s="2" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B416" s="2" t="n">
+        <v>95.6632</v>
+      </c>
+      <c r="C416" s="2" t="n">
+        <v>-125.9613</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E416" s="2" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B417" s="2" t="n">
+        <v>98.3658</v>
+      </c>
+      <c r="C417" s="2" t="n">
+        <v>-121.2803</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E417" s="2" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B418" s="2" t="n">
+        <v>80.8173</v>
+      </c>
+      <c r="C418" s="2" t="n">
+        <v>-186.7002</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E418" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B419" s="2" t="n">
+        <v>80.7481</v>
+      </c>
+      <c r="C419" s="2" t="n">
+        <v>-179.2376</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E419" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B420" s="2" t="n">
+        <v>80.7481</v>
+      </c>
+      <c r="C420" s="2" t="n">
+        <v>-173.9748</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E420" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B421" s="2" t="n">
+        <v>80.7481</v>
+      </c>
+      <c r="C421" s="2" t="n">
+        <v>-168.5696</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E421" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B422" s="2" t="n">
+        <v>98.2606</v>
+      </c>
+      <c r="C422" s="2" t="n">
+        <v>-233.9991</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E422" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B423" s="2" t="n">
+        <v>94.4694</v>
+      </c>
+      <c r="C423" s="2" t="n">
+        <v>-227.571</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E423" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B424" s="2" t="n">
+        <v>91.838</v>
+      </c>
+      <c r="C424" s="2" t="n">
+        <v>-223.0132</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E424" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B425" s="2" t="n">
+        <v>89.1354</v>
+      </c>
+      <c r="C425" s="2" t="n">
+        <v>-218.3322</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E425" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B426" s="2" t="n">
+        <v>137.0164</v>
+      </c>
+      <c r="C426" s="2" t="n">
+        <v>-266.2396</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E426" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B427" s="2" t="n">
+        <v>130.519</v>
+      </c>
+      <c r="C427" s="2" t="n">
+        <v>-262.5682</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E427" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B428" s="2" t="n">
+        <v>125.9613</v>
+      </c>
+      <c r="C428" s="2" t="n">
+        <v>-259.9368</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E428" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B429" s="2" t="n">
+        <v>121.2803</v>
+      </c>
+      <c r="C429" s="2" t="n">
+        <v>-257.2342</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E429" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B430" s="2" t="n">
+        <v>186.7002</v>
+      </c>
+      <c r="C430" s="2" t="n">
+        <v>-274.7827</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E430" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B431" s="2" t="n">
+        <v>179.2376</v>
+      </c>
+      <c r="C431" s="2" t="n">
+        <v>-274.8519</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E431" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B432" s="2" t="n">
+        <v>173.9748</v>
+      </c>
+      <c r="C432" s="2" t="n">
+        <v>-274.8519</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E432" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B433" s="2" t="n">
+        <v>168.5696</v>
+      </c>
+      <c r="C433" s="2" t="n">
+        <v>-274.8519</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E433" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B434" s="2" t="n">
+        <v>233.9991</v>
+      </c>
+      <c r="C434" s="2" t="n">
+        <v>-257.3394</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E434" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B435" s="2" t="n">
+        <v>227.571</v>
+      </c>
+      <c r="C435" s="2" t="n">
+        <v>-261.1306</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E435" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B436" s="2" t="n">
+        <v>223.0132</v>
+      </c>
+      <c r="C436" s="2" t="n">
+        <v>-263.762</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E436" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B437" s="2" t="n">
+        <v>218.3322</v>
+      </c>
+      <c r="C437" s="2" t="n">
+        <v>-266.4646</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E437" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B438" s="2" t="n">
+        <v>266.2396</v>
+      </c>
+      <c r="C438" s="2" t="n">
+        <v>-218.5836</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E438" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B439" s="2" t="n">
+        <v>262.5682</v>
+      </c>
+      <c r="C439" s="2" t="n">
+        <v>-225.081</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E439" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B440" s="2" t="n">
+        <v>259.9368</v>
+      </c>
+      <c r="C440" s="2" t="n">
+        <v>-229.6387</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E440" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B441" s="2" t="n">
+        <v>257.2342</v>
+      </c>
+      <c r="C441" s="2" t="n">
+        <v>-234.3197</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E441" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
